--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem5/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem5/incorrect_predictions.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Aircraft in Altitude Zone</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Max altitude set to nnn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -741,17 +741,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
